--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Tac1</t>
+  </si>
+  <si>
+    <t>Tacr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tac1</t>
-  </si>
-  <si>
-    <t>Tacr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +540,40 @@
         <v>4.636114</v>
       </c>
       <c r="I2">
-        <v>0.8984831976533034</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8984831976533033</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1204133333333333</v>
+        <v>0.02438133333333333</v>
       </c>
       <c r="N2">
-        <v>0.36124</v>
+        <v>0.073144</v>
       </c>
       <c r="O2">
-        <v>0.6304682086876998</v>
+        <v>0.2065981245057056</v>
       </c>
       <c r="P2">
-        <v>0.6304682086876997</v>
+        <v>0.2065981245057056</v>
       </c>
       <c r="Q2">
-        <v>0.1860833134844445</v>
+        <v>0.03767821360177778</v>
       </c>
       <c r="R2">
-        <v>1.67474982136</v>
+        <v>0.339103922416</v>
       </c>
       <c r="S2">
-        <v>0.5664650921604747</v>
+        <v>0.2065981245057056</v>
       </c>
       <c r="T2">
-        <v>0.5664650921604746</v>
+        <v>0.2065981245057056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>4.636114</v>
       </c>
       <c r="I3">
-        <v>0.8984831976533034</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8984831976533033</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +620,10 @@
         <v>0.211731</v>
       </c>
       <c r="O3">
-        <v>0.3695317913123003</v>
+        <v>0.5980425940571686</v>
       </c>
       <c r="P3">
-        <v>0.3695317913123003</v>
+        <v>0.5980425940571686</v>
       </c>
       <c r="Q3">
         <v>0.1090676725926667</v>
@@ -635,258 +632,72 @@
         <v>0.9816090533340001</v>
       </c>
       <c r="S3">
-        <v>0.3320181054928288</v>
+        <v>0.5980425940571686</v>
       </c>
       <c r="T3">
-        <v>0.3320181054928287</v>
+        <v>0.5980425940571686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.545371333333333</v>
+      </c>
+      <c r="H4">
+        <v>4.636114</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.1369916666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.410975</v>
-      </c>
-      <c r="I4">
-        <v>0.07964733657446005</v>
-      </c>
-      <c r="J4">
-        <v>0.07964733657446006</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.1204133333333333</v>
+        <v>0.023055</v>
       </c>
       <c r="N4">
-        <v>0.36124</v>
+        <v>0.069165</v>
       </c>
       <c r="O4">
-        <v>0.6304682086876998</v>
+        <v>0.1953592814371257</v>
       </c>
       <c r="P4">
-        <v>0.6304682086876997</v>
+        <v>0.1953592814371257</v>
       </c>
       <c r="Q4">
-        <v>0.01649562322222222</v>
+        <v>0.03562853609</v>
       </c>
       <c r="R4">
-        <v>0.148460609</v>
+        <v>0.32065682481</v>
       </c>
       <c r="S4">
-        <v>0.05021511361684614</v>
+        <v>0.1953592814371257</v>
       </c>
       <c r="T4">
-        <v>0.05021511361684614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1369916666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.410975</v>
-      </c>
-      <c r="I5">
-        <v>0.07964733657446005</v>
-      </c>
-      <c r="J5">
-        <v>0.07964733657446006</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.070577</v>
-      </c>
-      <c r="N5">
-        <v>0.211731</v>
-      </c>
-      <c r="O5">
-        <v>0.3695317913123003</v>
-      </c>
-      <c r="P5">
-        <v>0.3695317913123003</v>
-      </c>
-      <c r="Q5">
-        <v>0.009668460858333332</v>
-      </c>
-      <c r="R5">
-        <v>0.08701614772499999</v>
-      </c>
-      <c r="S5">
-        <v>0.02943222295761391</v>
-      </c>
-      <c r="T5">
-        <v>0.02943222295761392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.037615</v>
-      </c>
-      <c r="H6">
-        <v>0.112845</v>
-      </c>
-      <c r="I6">
-        <v>0.02186946577223662</v>
-      </c>
-      <c r="J6">
-        <v>0.02186946577223662</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1204133333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.36124</v>
-      </c>
-      <c r="O6">
-        <v>0.6304682086876998</v>
-      </c>
-      <c r="P6">
-        <v>0.6304682086876997</v>
-      </c>
-      <c r="Q6">
-        <v>0.004529347533333334</v>
-      </c>
-      <c r="R6">
-        <v>0.0407641278</v>
-      </c>
-      <c r="S6">
-        <v>0.01378800291037899</v>
-      </c>
-      <c r="T6">
-        <v>0.01378800291037898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.037615</v>
-      </c>
-      <c r="H7">
-        <v>0.112845</v>
-      </c>
-      <c r="I7">
-        <v>0.02186946577223662</v>
-      </c>
-      <c r="J7">
-        <v>0.02186946577223662</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.070577</v>
-      </c>
-      <c r="N7">
-        <v>0.211731</v>
-      </c>
-      <c r="O7">
-        <v>0.3695317913123003</v>
-      </c>
-      <c r="P7">
-        <v>0.3695317913123003</v>
-      </c>
-      <c r="Q7">
-        <v>0.002654753855</v>
-      </c>
-      <c r="R7">
-        <v>0.023892784695</v>
-      </c>
-      <c r="S7">
-        <v>0.008081462861857638</v>
-      </c>
-      <c r="T7">
-        <v>0.008081462861857638</v>
+        <v>0.1953592814371257</v>
       </c>
     </row>
   </sheetData>
